--- a/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10502"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-core/src/test/resources/showcase/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C022257-7079-A842-9EA3-696F89C760B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="13060" windowWidth="28200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView xWindow="34140" yWindow="440" windowWidth="17060" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#default" r:id="rId1" sheetId="2"/>
+    <sheet name="#default" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -40,70 +41,36 @@
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
     <definedName name="xml">'[1]#system'!$O$2:$O$12</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
-  <si>
-    <t>sentry.scope.executionMode</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>sentry.delayBetweenStepsMs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>sentry.scope.iteration</t>
-  </si>
-  <si>
-    <t>sentry.scope.fallbackToPrevious</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>sentry.failFast</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>sentry.browser.incognito</t>
-  </si>
-  <si>
     <t>sentry.IEforce32</t>
   </si>
   <si>
-    <t>sentry.screenshotOnError</t>
-  </si>
-  <si>
-    <t>sentry.pollWaitMs</t>
-  </si>
-  <si>
     <t>800</t>
   </si>
   <si>
-    <t>sentry.textDelim</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>sentry.verbose</t>
-  </si>
-  <si>
-    <t>sentry.browser</t>
-  </si>
-  <si>
-    <t>sentry.browser.windowSize</t>
-  </si>
-  <si>
     <t>searchKey1</t>
   </si>
   <si>
@@ -128,12 +95,6 @@
     <t>firefox.headless</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nexial.scope.executionMode</t>
-  </si>
-  <si>
     <t>nexial.delayBetweenStepsMs</t>
   </si>
   <si>
@@ -146,18 +107,12 @@
     <t>nexial.failFast</t>
   </si>
   <si>
-    <t>nexial.browser.incognito</t>
-  </si>
-  <si>
     <t>nexial.screenshotOnError</t>
   </si>
   <si>
     <t>nexial.pollWaitMs</t>
   </si>
   <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
     <t>nexial.verbose</t>
   </si>
   <si>
@@ -165,13 +120,15 @@
   </si>
   <si>
     <t>nexial.browser.windowSize</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -252,47 +209,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -563,7 +520,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,7 +539,7 @@
       <sheetName val="#system"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -593,10 +550,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -760,21 +717,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,7 +748,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -845,126 +802,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ZR15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ZQ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="32.6640625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" style="3" width="20.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="17.33203125" collapsed="true"/>
-    <col min="7" max="17" customWidth="true" style="4" width="21.1640625" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="20.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="17" width="21.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="10.83203125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:693">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="8"/>
+      <c r="ZQ1" s="9"/>
     </row>
     <row r="2" spans="1:693">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="GQ2" s="8"/>
       <c r="ZQ2" s="9"/>
     </row>
     <row r="3" spans="1:693">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="GQ3" s="8"/>
       <c r="ZQ3" s="9"/>
     </row>
     <row r="4" spans="1:693">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="GQ4" s="8"/>
       <c r="ZQ4" s="9"/>
     </row>
-    <row r="5" spans="1:693">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GQ5" s="8"/>
-      <c r="ZQ5" s="9"/>
-    </row>
-    <row customFormat="1" r="6" spans="1:693">
+    <row r="5" spans="1:693" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:693" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row customFormat="1" r="7" spans="1:693">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:693">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GQ7" s="8"/>
+      <c r="ZQ7" s="9"/>
+    </row>
+    <row r="8" spans="1:693">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ8" s="8"/>
+      <c r="ZQ8" s="9"/>
+    </row>
+    <row r="9" spans="1:693" s="1" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row customFormat="1" r="8" spans="1:693">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:693">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="GQ9" s="8"/>
-      <c r="ZQ9" s="9"/>
-    </row>
-    <row r="10" spans="1:693">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="GQ10" s="8"/>
-      <c r="ZQ10" s="9"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:693" s="1" customFormat="1">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:693">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -972,135 +935,100 @@
       <c r="GQ11" s="8"/>
       <c r="ZQ11" s="9"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:693">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="1" spans="1:693">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:693">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="GQ14" s="8"/>
-      <c r="ZQ14" s="9"/>
-    </row>
-    <row r="15" spans="1:693">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="GQ15" s="8"/>
-      <c r="ZQ15" s="9"/>
+    <row r="12" spans="1:693">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ12" s="8"/>
+      <c r="ZQ12" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertRows="0"/>
-  <conditionalFormatting sqref="A6:A8">
-    <cfRule dxfId="20" operator="beginsWith" priority="73" stopIfTrue="1" text="sentry.scope." type="beginsWith">
-      <formula>LEFT(A6,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule dxfId="19" operator="beginsWith" priority="74" stopIfTrue="1" text="sentry." type="beginsWith">
-      <formula>LEFT(A6,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule dxfId="18" priority="75" stopIfTrue="1" type="notContainsBlanks">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
+  <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A8">
+    <cfRule type="beginsWith" dxfId="20" priority="73" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="74" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="18" priority="75" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A13">
-    <cfRule dxfId="17" operator="beginsWith" priority="61" stopIfTrue="1" text="sentry.scope." type="beginsWith">
-      <formula>LEFT(A12,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule dxfId="16" operator="beginsWith" priority="62" stopIfTrue="1" text="sentry." type="beginsWith">
-      <formula>LEFT(A12,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule dxfId="15" priority="63" stopIfTrue="1" type="notContainsBlanks">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="beginsWith" dxfId="17" priority="61" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="62" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="63" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8">
-    <cfRule dxfId="14" priority="76" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="B1:E4 B5:B6 B7:E8">
+    <cfRule type="expression" dxfId="14" priority="76" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="13" priority="77" type="notContainsBlanks">
-      <formula>LEN(TRIM(B6))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="13" priority="77">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5 A9:A11 A14:A1048576">
-    <cfRule dxfId="12" operator="beginsWith" priority="179" stopIfTrue="1" text="sentry.scope." type="beginsWith">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule dxfId="11" operator="beginsWith" priority="180" stopIfTrue="1" text="sentry." type="beginsWith">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule dxfId="10" priority="181" stopIfTrue="1" type="notContainsBlanks">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+  <conditionalFormatting sqref="A11:A1048576">
+    <cfRule type="beginsWith" dxfId="12" priority="179" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A11,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="11" priority="180" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A11,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="181" stopIfTrue="1">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E5 B9:E11 B14:E1048576">
-    <cfRule dxfId="9" priority="182" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="B11:E1048576">
+    <cfRule type="expression" dxfId="9" priority="182" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="8" priority="183" type="notContainsBlanks">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="8" priority="183">
+      <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule dxfId="7" priority="9" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="6" priority="10" type="notContainsBlanks">
-      <formula>LEN(TRIM(E13))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="6" priority="10">
+      <formula>LEN(TRIM(E10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule dxfId="5" priority="11" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="12" type="notContainsBlanks">
-      <formula>LEN(TRIM(C13))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+      <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule dxfId="3" priority="7" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="notContainsBlanks">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="8">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule dxfId="1" priority="1" stopIfTrue="1" type="expression">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="2" type="notContainsBlanks">
-      <formula>LEN(TRIM(F13))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8A4D5852-A8B1-6542-8E07-69F7FEC0612B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DD731-0E20-3E44-BA5E-0618F49CE839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" tabRatio="500" windowHeight="25140" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#default" r:id="rId7" sheetId="4"/>
-    <sheet name="AssertTypeKeys" r:id="rId8" sheetId="5"/>
+    <sheet name="#default" sheetId="4" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>true</t>
   </si>
@@ -58,9 +57,6 @@
     <t>800</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -79,22 +75,13 @@
     <t>nexial.failFast</t>
   </si>
   <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
     <t>nexial.verbose</t>
   </si>
   <si>
-    <t>nexial.openResult</t>
-  </si>
-  <si>
     <t>nexial.delayBetweenStepsMs</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>nexial.screenshotOnError</t>
@@ -134,7 +121,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,57 +207,57 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
-    <cellStyle builtinId="0" customBuiltin="1" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -282,7 +268,7 @@
         <u val="none"/>
         <color theme="1"/>
       </font>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -354,7 +340,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,7 +359,7 @@
       <sheetName val="#system"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -384,10 +370,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -422,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -457,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -551,21 +537,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -582,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -634,53 +620,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAB200"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5549F8-9F1D-AF40-8A08-A72AB9B4BD13}">
+  <dimension ref="A1:AAA200"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScalePageLayoutView="125"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="21.28515625" collapsed="true"/>
-    <col min="3" max="52" customWidth="true" style="2" width="21.28515625" collapsed="true"/>
-    <col min="53" max="16384" style="2" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="52" width="21.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="53" max="16384" width="10.7109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="GQ1" s="4"/>
       <c r="HA1" s="3"/>
       <c r="ZQ1" s="4"/>
       <c r="AAA1" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="2" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GQ2" s="4"/>
       <c r="HA2" s="3"/>
       <c r="ZQ2" s="4"/>
       <c r="AAA2" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="3" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -690,21 +678,21 @@
       <c r="ZQ3" s="4"/>
       <c r="AAA3" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="4" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="GQ4" s="4"/>
       <c r="HA4" s="6"/>
       <c r="ZQ4" s="4"/>
       <c r="AAA4" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="5" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -715,9 +703,9 @@
       <c r="HA5" s="6"/>
       <c r="AAA5" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="6" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -727,9 +715,9 @@
       <c r="ZQ6" s="4"/>
       <c r="AAA6" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="7" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -739,28 +727,28 @@
       <c r="ZQ7" s="4"/>
       <c r="AAA7" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="8" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="9" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
@@ -768,1294 +756,619 @@
       <c r="HA9" s="6"/>
       <c r="AAA9" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="10" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="GQ10" s="4"/>
       <c r="HA10" s="6"/>
       <c r="ZQ10" s="4"/>
       <c r="AAA10" s="7"/>
     </row>
-    <row customHeight="1" ht="23" r="11" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="GQ11" s="4"/>
       <c r="ZQ11" s="4"/>
     </row>
-    <row customHeight="1" ht="23" r="12" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="13" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="14" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="15" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="16" spans="1:703" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
     </row>
-    <row customHeight="1" ht="23" r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" sheet="1" sort="0"/>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule dxfId="5" operator="beginsWith" priority="2" stopIfTrue="1" text="nexial.scope." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="beginsWith" priority="3" stopIfTrue="1" text="nexial." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" stopIfTrue="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="//" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:AZ1048576">
-    <cfRule dxfId="1" priority="5" stopIfTrue="1" type="expression">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="8" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAB200"/>
-  <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScalePageLayoutView="125"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="21.28515625" collapsed="true"/>
-    <col min="3" max="52" customWidth="true" style="2" width="21.28515625" collapsed="true"/>
-    <col min="53" max="16384" style="2" width="10.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="GQ1" s="4"/>
-      <c r="HA1" s="3"/>
-      <c r="ZQ1" s="4"/>
-      <c r="AAA1" s="3"/>
-    </row>
-    <row customHeight="1" ht="23" r="2" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="HA2" s="3"/>
-      <c r="AAA2" s="3"/>
-    </row>
-    <row customHeight="1" ht="23" r="3" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="HA3" s="3"/>
-      <c r="AAA3" s="3"/>
-    </row>
-    <row customHeight="1" ht="23" r="4" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="HA4" s="6"/>
-      <c r="AAA4" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="5" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="HA5" s="6"/>
-      <c r="AAA5" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="6" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="HA6" s="6"/>
-      <c r="AAA6" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="7" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="HA7" s="6"/>
-      <c r="AAA7" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="8" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="HA8" s="6"/>
-      <c r="AAA8" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="9" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="HA9" s="6"/>
-      <c r="AAA9" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="10" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="HA10" s="6"/>
-      <c r="AAA10" s="7"/>
-    </row>
-    <row customHeight="1" ht="23" r="11" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="12" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="13" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="14" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="15" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="16" spans="1:703" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row customHeight="1" ht="23" r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" sheet="1" sort="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule dxfId="5" operator="beginsWith" priority="2" stopIfTrue="1" text="nexial.scope." type="beginsWith">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule dxfId="4" operator="beginsWith" priority="3" stopIfTrue="1" text="nexial." type="beginsWith">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule dxfId="3" priority="4" stopIfTrue="1" type="notContainsBlanks">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="//" type="beginsWith">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:AZ1048576">
-    <cfRule dxfId="1" priority="5" stopIfTrue="1" type="expression">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
-    </cfRule>
-    <cfRule dxfId="0" priority="8" type="notContainsBlanks">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10804"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DD731-0E20-3E44-BA5E-0618F49CE839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C26D8B-1B38-D24F-A652-58A6C52C77BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Test Automation</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AAA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -644,10 +644,10 @@
   <sheetData>
     <row r="1" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="GQ1" s="4"/>
       <c r="HA1" s="3"/>
@@ -656,10 +656,10 @@
     </row>
     <row r="2" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GQ2" s="4"/>
       <c r="HA2" s="3"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="3" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GQ4" s="4"/>
       <c r="HA4" s="6"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="5" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="6" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="GQ6" s="4"/>
       <c r="HA6" s="6"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="7" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -729,26 +729,26 @@
     </row>
     <row r="8" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="7"/>
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
@@ -758,10 +758,10 @@
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="GQ10" s="4"/>
       <c r="HA10" s="6"/>
@@ -770,10 +770,10 @@
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="GQ11" s="4"/>
       <c r="ZQ11" s="4"/>

--- a/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C26D8B-1B38-D24F-A652-58A6C52C77BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027576C-6054-8943-AAD4-A09624C9AEB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="4" r:id="rId1"/>
@@ -36,10 +36,18 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,9 +113,6 @@
     <t>searchKey1</t>
   </si>
   <si>
-    <t>Sentry</t>
-  </si>
-  <si>
     <t>searchKey2</t>
   </si>
   <si>
@@ -115,6 +120,9 @@
   </si>
   <si>
     <t>600</t>
+  </si>
+  <si>
+    <t>Nexial</t>
   </si>
 </sst>
 </file>
@@ -631,7 +639,7 @@
   <dimension ref="A1:AAA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -708,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="GQ6" s="4"/>
       <c r="HA6" s="6"/>
@@ -761,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="GQ10" s="4"/>
       <c r="HA10" s="6"/>
@@ -770,10 +778,10 @@
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="GQ11" s="4"/>
       <c r="ZQ11" s="4"/>

--- a/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_web.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027576C-6054-8943-AAD4-A09624C9AEB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA22D09-2049-5A4E-AB87-448333C6FE7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
